--- a/imageCreationExcel/back/105/105_11.xlsx
+++ b/imageCreationExcel/back/105/105_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.21766588952603</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8149571781356143</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4474039156001121</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_brightness8.218_gamma0.815_sharpness0.447.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9992381495704322</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9239738457677009</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.07638731513289</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_contrast0.999_sharpness0.924_equalization19.076.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -575,34 +575,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.122693195112756</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5490674365975526</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>26.95663703458794</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_contrast1.123_gamma0.549_equalization26.957.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.100441406996608</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.04090884683145258</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.57961077150473</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_B_contrast1.1_sharpness0.041_equalization16.58.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7623064152777668</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6278843203289606</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>30.18849366427093</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_gamma0.762_sharpness0.628_equalization30.188.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.68970564459244</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6041261947194208</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.103232700235254</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_2_brightness21.69_gamma0.604_sharpness0.103.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.196857388158734</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.799537119055167</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2197925362876988</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast1.197_gamma0.8_sharpness0.22.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.28355324215039</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9771457951099882</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7290219173248799</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_brightness10.284_contrast0.977_sharpness0.729.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5714419164006714</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8728679956510135</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14.02848991458148</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_gamma0.571_sharpness0.873_equalization14.028.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7.54495358627571</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.063019123647922</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8041556681628874</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_brightness7.545_contrast1.063_gamma0.804.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6920447271977755</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.05959692892445241</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.35719128375615</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_gamma0.692_sharpness0.06_equalization12.357.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16.86704156003774</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9106038613933344</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9694757436338423</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_brightness16.867_contrast0.911_gamma0.969.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.39900890728271</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.078219408025052</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7435068902977456</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_8_brightness10.399_contrast1.078_gamma0.744.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6919023972111553</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.3307247223752512</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25.19676450263708</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_gamma0.692_sharpness0.331_equalization25.197.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.985732670916827</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5172494183361249</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.02482072298328746</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_3_contrast0.986_gamma0.517_sharpness0.025.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19.6191149368545</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.152607579168977</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.1770012645668929</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_brightness19.619_contrast1.153_sharpness0.177.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.022940950749449</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2179144428364438</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7.373467052113582</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_contrast1.023_sharpness0.218_equalization7.373.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.4667802297317</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.110002520560768</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.05266019858983594</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_brightness10.467_contrast1.11_sharpness0.053.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.15223201879098</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1802636171799246</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31.5422393479877</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_P_contrast1.152_sharpness0.18_equalization31.542.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.006569707146907</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.919082996604034</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5759599630129963</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_0_brightness2.007_contrast0.919_sharpness0.576.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.198697487874441</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7569582831486348</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11.7701730838427</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_contrast1.199_sharpness0.757_equalization11.77.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19.60466811709329</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8101161131166387</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.066305786025551</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_2_brightness19.605_contrast0.81_gamma1.066.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8444031733296535</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9243821877887854</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.3802830872429521</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_contrast0.844_gamma0.924_sharpness0.38.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.281111371898069</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.037097018693606</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9160951739600947</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_brightness4.281_gamma1.037_sharpness0.916.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22.53926067201529</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7092495978105351</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8498934462379502</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_brightness22.539_gamma0.709_sharpness0.85.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1536,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.042311927769435</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.06988355432425</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.268680653559229</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_B_contrast1.042_gamma1.07_sharpness0.269.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.4770003791206</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8982883966892228</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.08024623302942603</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_P_brightness12.477_contrast0.898_sharpness0.08.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8.044348854624834</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5004011311636564</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8925871690937272</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_brightness8.044_gamma0.5_sharpness0.893.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9342936131718114</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7906609282382683</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.2236520333332202</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_C_contrast0.934_gamma0.791_sharpness0.224.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5139135178965841</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9950352718588087</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>18.64749388071451</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_gamma0.514_sharpness0.995_equalization18.647.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.99708493457303</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8634939088814205</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.47805935376574</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_contrast0.997_gamma0.863_equalization14.478.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.93382097039972</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.836005568734599</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5834158252953755</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_brightness19.934_contrast0.836_gamma0.583.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9752861114095723</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.2643386133190593</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>23.9326690340203</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_P_contrast0.975_sharpness0.264_equalization23.933.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23.5069361086168</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9133440180688902</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.9133908084206379</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_T_brightness23.507_gamma0.913_sharpness0.913.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.054868213120735</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1762975407293181</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10.81955973106736</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_C_contrast1.055_sharpness0.176_equalization10.82.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8775463151306507</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7941464202255704</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17.78815118786079</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_gamma0.878_sharpness0.794_equalization17.788.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8132336477119657</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8452080947171241</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>27.21485990673878</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_contrast0.813_gamma0.845_equalization27.215.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.045354152381708</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6210354601715327</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>30.81810068485472</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_contrast1.045_sharpness0.621_equalization30.818.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>24.36206353718436</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.129187816124673</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.7089482931782258</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_brightness24.362_contrast1.129_sharpness0.709.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>19.4487470423729</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.027176531930011</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.9288264498385772</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_7_brightness19.449_gamma1.027_sharpness0.929.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.91094528087421</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5271692411649961</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>29.86192380430906</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_contrast0.911_gamma0.527_equalization29.862.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.068859073821256</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.3105685722852052</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9.570855406461042</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_contrast1.069_sharpness0.311_equalization9.571.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.069622180143884</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8659098712330828</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.038442527255355</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_contrast1.07_sharpness0.866_equalization5.038.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>18.17727991178967</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8883463959519272</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.2456670334320312</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_P_brightness18.177_contrast0.888_sharpness0.246.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.158191126721319</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5934452925058251</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>26.52632101890221</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_0_contrast1.158_sharpness0.593_equalization26.526.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8080020502975991</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.2274846347435336</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>18.95165943453958</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_contrast0.808_sharpness0.227_equalization18.952.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.026083360610127</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1485758747659803</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24.55412326366184</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_contrast1.026_sharpness0.149_equalization24.554.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6720949437964636</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.5768022893217517</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12.20911422748586</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_gamma0.672_sharpness0.577_equalization12.209.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
